--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/ENTRADAS CENTRAL PRODUCCION  Diciembre-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/ENTRADAS CENTRAL PRODUCCION  Diciembre-23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL   ARCHIVO   2 0 2 3\CENTRAL #12 DICIEMBRE 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#16   ARCHIVO   2 0 2 3\CENTRAL #12 DICIEMBRE 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Transferencia B</t>
+  </si>
+  <si>
+    <t>FOLIO PROD- 0057</t>
+  </si>
+  <si>
+    <t>V05-4483</t>
   </si>
 </sst>
 </file>
@@ -3860,6 +3866,228 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3887,227 +4115,101 @@
     <xf numFmtId="165" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4128,102 +4230,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4555,49 +4561,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="551" t="s">
+      <c r="A1" s="625" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="551"/>
-      <c r="C1" s="551"/>
-      <c r="D1" s="551"/>
-      <c r="E1" s="551"/>
-      <c r="F1" s="551"/>
-      <c r="G1" s="551"/>
-      <c r="H1" s="551"/>
-      <c r="I1" s="551"/>
-      <c r="J1" s="551"/>
+      <c r="B1" s="625"/>
+      <c r="C1" s="625"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="552" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="552"/>
+      <c r="S1" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="626"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="554" t="s">
+      <c r="W1" s="628" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="555"/>
+      <c r="X1" s="629"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="551"/>
-      <c r="B2" s="551"/>
-      <c r="C2" s="551"/>
-      <c r="D2" s="551"/>
-      <c r="E2" s="551"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="551"/>
-      <c r="J2" s="551"/>
+      <c r="A2" s="625"/>
+      <c r="B2" s="625"/>
+      <c r="C2" s="625"/>
+      <c r="D2" s="625"/>
+      <c r="E2" s="625"/>
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="625"/>
+      <c r="I2" s="625"/>
+      <c r="J2" s="625"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -4605,8 +4611,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="553"/>
-      <c r="T2" s="553"/>
+      <c r="S2" s="627"/>
+      <c r="T2" s="627"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -4651,10 +4657,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="556" t="s">
+      <c r="O3" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="557"/>
+      <c r="P3" s="631"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -4947,8 +4953,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="558"/>
-      <c r="M12" s="559"/>
+      <c r="L12" s="632"/>
+      <c r="M12" s="633"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6738,13 +6744,13 @@
       <c r="V63" s="207"/>
     </row>
     <row r="64" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="564" t="s">
+      <c r="A64" s="619" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="562" t="s">
+      <c r="C64" s="617" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="209"/>
@@ -6752,10 +6758,10 @@
       <c r="F64" s="493">
         <v>146</v>
       </c>
-      <c r="G64" s="566">
+      <c r="G64" s="621">
         <v>45182</v>
       </c>
-      <c r="H64" s="568" t="s">
+      <c r="H64" s="623" t="s">
         <v>41</v>
       </c>
       <c r="I64" s="491">
@@ -6768,7 +6774,7 @@
       <c r="K64" s="235">
         <v>38</v>
       </c>
-      <c r="L64" s="594" t="s">
+      <c r="L64" s="599" t="s">
         <v>42</v>
       </c>
       <c r="M64" s="487"/>
@@ -6776,10 +6782,10 @@
         <f t="shared" si="1"/>
         <v>5548</v>
       </c>
-      <c r="O64" s="570" t="s">
+      <c r="O64" s="575" t="s">
         <v>21</v>
       </c>
-      <c r="P64" s="572">
+      <c r="P64" s="577">
         <v>45229</v>
       </c>
       <c r="Q64" s="212"/>
@@ -6790,18 +6796,18 @@
       <c r="V64" s="78"/>
     </row>
     <row r="65" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="565"/>
+      <c r="A65" s="620"/>
       <c r="B65" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="563"/>
+      <c r="C65" s="618"/>
       <c r="D65" s="213"/>
       <c r="E65" s="91"/>
       <c r="F65" s="493">
         <v>185</v>
       </c>
-      <c r="G65" s="567"/>
-      <c r="H65" s="569"/>
+      <c r="G65" s="622"/>
+      <c r="H65" s="624"/>
       <c r="I65" s="491">
         <v>185</v>
       </c>
@@ -6812,14 +6818,14 @@
       <c r="K65" s="235">
         <v>38</v>
       </c>
-      <c r="L65" s="595"/>
+      <c r="L65" s="600"/>
       <c r="M65" s="487"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>7030</v>
       </c>
-      <c r="O65" s="571"/>
-      <c r="P65" s="573"/>
+      <c r="O65" s="576"/>
+      <c r="P65" s="578"/>
       <c r="Q65" s="214"/>
       <c r="R65" s="177"/>
       <c r="S65" s="76"/>
@@ -6828,13 +6834,13 @@
       <c r="V65" s="78"/>
     </row>
     <row r="66" spans="1:22" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="574" t="s">
+      <c r="A66" s="579" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="596" t="s">
+      <c r="C66" s="601" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="213"/>
@@ -6842,10 +6848,10 @@
       <c r="F66" s="493">
         <v>163.4</v>
       </c>
-      <c r="G66" s="599">
+      <c r="G66" s="604">
         <v>45188</v>
       </c>
-      <c r="H66" s="602" t="s">
+      <c r="H66" s="607" t="s">
         <v>47</v>
       </c>
       <c r="I66" s="491">
@@ -6858,7 +6864,7 @@
       <c r="K66" s="235">
         <v>163.4</v>
       </c>
-      <c r="L66" s="605" t="s">
+      <c r="L66" s="610" t="s">
         <v>48</v>
       </c>
       <c r="M66" s="487"/>
@@ -6866,10 +6872,10 @@
         <f t="shared" si="1"/>
         <v>26699.56</v>
       </c>
-      <c r="O66" s="607" t="s">
+      <c r="O66" s="612" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="610">
+      <c r="P66" s="551">
         <v>45229</v>
       </c>
       <c r="Q66" s="214"/>
@@ -6880,18 +6886,18 @@
       <c r="V66" s="78"/>
     </row>
     <row r="67" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="575"/>
+      <c r="A67" s="580"/>
       <c r="B67" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="597"/>
+      <c r="C67" s="602"/>
       <c r="D67" s="213"/>
       <c r="E67" s="91"/>
       <c r="F67" s="493">
         <v>85.04</v>
       </c>
-      <c r="G67" s="600"/>
-      <c r="H67" s="603"/>
+      <c r="G67" s="605"/>
+      <c r="H67" s="608"/>
       <c r="I67" s="491">
         <v>85.04</v>
       </c>
@@ -6902,14 +6908,14 @@
       <c r="K67" s="235">
         <v>85.04</v>
       </c>
-      <c r="L67" s="606"/>
+      <c r="L67" s="611"/>
       <c r="M67" s="487"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>7231.8016000000007</v>
       </c>
-      <c r="O67" s="608"/>
-      <c r="P67" s="611"/>
+      <c r="O67" s="613"/>
+      <c r="P67" s="552"/>
       <c r="Q67" s="214"/>
       <c r="R67" s="221"/>
       <c r="S67" s="76"/>
@@ -6918,18 +6924,18 @@
       <c r="V67" s="78"/>
     </row>
     <row r="68" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="575"/>
+      <c r="A68" s="580"/>
       <c r="B68" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="597"/>
+      <c r="C68" s="602"/>
       <c r="D68" s="213"/>
       <c r="E68" s="91"/>
       <c r="F68" s="493">
         <v>123.64</v>
       </c>
-      <c r="G68" s="600"/>
-      <c r="H68" s="603"/>
+      <c r="G68" s="605"/>
+      <c r="H68" s="608"/>
       <c r="I68" s="491">
         <v>123.64</v>
       </c>
@@ -6940,14 +6946,14 @@
       <c r="K68" s="235">
         <v>123.64</v>
       </c>
-      <c r="L68" s="606"/>
+      <c r="L68" s="611"/>
       <c r="M68" s="487"/>
       <c r="N68" s="50">
         <f t="shared" si="1"/>
         <v>15286.8496</v>
       </c>
-      <c r="O68" s="608"/>
-      <c r="P68" s="611"/>
+      <c r="O68" s="613"/>
+      <c r="P68" s="552"/>
       <c r="Q68" s="214"/>
       <c r="R68" s="221"/>
       <c r="S68" s="76"/>
@@ -6956,18 +6962,18 @@
       <c r="V68" s="78"/>
     </row>
     <row r="69" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="576"/>
+      <c r="A69" s="581"/>
       <c r="B69" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="598"/>
+      <c r="C69" s="603"/>
       <c r="D69" s="213"/>
       <c r="E69" s="91"/>
       <c r="F69" s="493">
         <v>68.680000000000007</v>
       </c>
-      <c r="G69" s="601"/>
-      <c r="H69" s="604"/>
+      <c r="G69" s="606"/>
+      <c r="H69" s="609"/>
       <c r="I69" s="491">
         <v>68.680000000000007</v>
       </c>
@@ -6978,14 +6984,14 @@
       <c r="K69" s="235">
         <v>68.680000000000007</v>
       </c>
-      <c r="L69" s="606"/>
+      <c r="L69" s="611"/>
       <c r="M69" s="487"/>
       <c r="N69" s="50">
         <f t="shared" si="1"/>
         <v>4716.9424000000008</v>
       </c>
-      <c r="O69" s="609"/>
-      <c r="P69" s="612"/>
+      <c r="O69" s="614"/>
+      <c r="P69" s="553"/>
       <c r="Q69" s="214"/>
       <c r="R69" s="221"/>
       <c r="S69" s="76"/>
@@ -7048,13 +7054,13 @@
       <c r="V70" s="78"/>
     </row>
     <row r="71" spans="1:22" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="616" t="s">
+      <c r="A71" s="557" t="s">
         <v>30</v>
       </c>
       <c r="B71" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="619" t="s">
+      <c r="C71" s="560" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="213"/>
@@ -7062,10 +7068,10 @@
       <c r="F71" s="493">
         <v>27.36</v>
       </c>
-      <c r="G71" s="622">
+      <c r="G71" s="563">
         <v>45195</v>
       </c>
-      <c r="H71" s="625" t="s">
+      <c r="H71" s="566" t="s">
         <v>53</v>
       </c>
       <c r="I71" s="491">
@@ -7078,7 +7084,7 @@
       <c r="K71" s="235">
         <v>70</v>
       </c>
-      <c r="L71" s="628" t="s">
+      <c r="L71" s="569" t="s">
         <v>54</v>
       </c>
       <c r="M71" s="487"/>
@@ -7086,10 +7092,10 @@
         <f t="shared" si="1"/>
         <v>1915.2</v>
       </c>
-      <c r="O71" s="631" t="s">
+      <c r="O71" s="572" t="s">
         <v>21</v>
       </c>
-      <c r="P71" s="613">
+      <c r="P71" s="554">
         <v>45229</v>
       </c>
       <c r="Q71" s="214"/>
@@ -7100,18 +7106,18 @@
       <c r="V71" s="78"/>
     </row>
     <row r="72" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="617"/>
+      <c r="A72" s="558"/>
       <c r="B72" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="620"/>
+      <c r="C72" s="561"/>
       <c r="D72" s="213"/>
       <c r="E72" s="91"/>
       <c r="F72" s="493">
         <v>58.08</v>
       </c>
-      <c r="G72" s="623"/>
-      <c r="H72" s="626"/>
+      <c r="G72" s="564"/>
+      <c r="H72" s="567"/>
       <c r="I72" s="491">
         <v>58.08</v>
       </c>
@@ -7122,14 +7128,14 @@
       <c r="K72" s="235">
         <v>70</v>
       </c>
-      <c r="L72" s="629"/>
+      <c r="L72" s="570"/>
       <c r="M72" s="487"/>
       <c r="N72" s="50">
         <f t="shared" si="1"/>
         <v>4065.6</v>
       </c>
-      <c r="O72" s="632"/>
-      <c r="P72" s="614"/>
+      <c r="O72" s="573"/>
+      <c r="P72" s="555"/>
       <c r="Q72" s="214"/>
       <c r="R72" s="221"/>
       <c r="S72" s="76"/>
@@ -7138,18 +7144,18 @@
       <c r="V72" s="78"/>
     </row>
     <row r="73" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="617"/>
+      <c r="A73" s="558"/>
       <c r="B73" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="620"/>
+      <c r="C73" s="561"/>
       <c r="D73" s="213"/>
       <c r="E73" s="91"/>
       <c r="F73" s="493">
         <v>30.02</v>
       </c>
-      <c r="G73" s="623"/>
-      <c r="H73" s="626"/>
+      <c r="G73" s="564"/>
+      <c r="H73" s="567"/>
       <c r="I73" s="491">
         <v>30.02</v>
       </c>
@@ -7160,14 +7166,14 @@
       <c r="K73" s="235">
         <v>38</v>
       </c>
-      <c r="L73" s="629"/>
+      <c r="L73" s="570"/>
       <c r="M73" s="487"/>
       <c r="N73" s="50">
         <f t="shared" si="1"/>
         <v>1140.76</v>
       </c>
-      <c r="O73" s="632"/>
-      <c r="P73" s="614"/>
+      <c r="O73" s="573"/>
+      <c r="P73" s="555"/>
       <c r="Q73" s="214"/>
       <c r="R73" s="221"/>
       <c r="S73" s="76"/>
@@ -7176,18 +7182,18 @@
       <c r="V73" s="78"/>
     </row>
     <row r="74" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="618"/>
+      <c r="A74" s="559"/>
       <c r="B74" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="621"/>
+      <c r="C74" s="562"/>
       <c r="D74" s="213"/>
       <c r="E74" s="91"/>
       <c r="F74" s="493">
         <v>86.18</v>
       </c>
-      <c r="G74" s="624"/>
-      <c r="H74" s="627"/>
+      <c r="G74" s="565"/>
+      <c r="H74" s="568"/>
       <c r="I74" s="491">
         <v>86.18</v>
       </c>
@@ -7198,14 +7204,14 @@
       <c r="K74" s="235">
         <v>60</v>
       </c>
-      <c r="L74" s="630"/>
+      <c r="L74" s="571"/>
       <c r="M74" s="487"/>
       <c r="N74" s="50">
         <f t="shared" si="1"/>
         <v>5170.8</v>
       </c>
-      <c r="O74" s="633"/>
-      <c r="P74" s="615"/>
+      <c r="O74" s="574"/>
+      <c r="P74" s="556"/>
       <c r="Q74" s="214"/>
       <c r="R74" s="221"/>
       <c r="S74" s="76"/>
@@ -7244,13 +7250,13 @@
       <c r="V75" s="78"/>
     </row>
     <row r="76" spans="1:22" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="574" t="s">
+      <c r="A76" s="579" t="s">
         <v>30</v>
       </c>
       <c r="B76" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="577" t="s">
+      <c r="C76" s="582" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="213"/>
@@ -7258,10 +7264,10 @@
       <c r="F76" s="493">
         <v>43.58</v>
       </c>
-      <c r="G76" s="580">
+      <c r="G76" s="585">
         <v>45198</v>
       </c>
-      <c r="H76" s="583" t="s">
+      <c r="H76" s="588" t="s">
         <v>43</v>
       </c>
       <c r="I76" s="491">
@@ -7274,7 +7280,7 @@
       <c r="K76" s="235">
         <v>43.58</v>
       </c>
-      <c r="L76" s="586" t="s">
+      <c r="L76" s="591" t="s">
         <v>44</v>
       </c>
       <c r="M76" s="487"/>
@@ -7282,10 +7288,10 @@
         <f t="shared" si="1"/>
         <v>1899.2163999999998</v>
       </c>
-      <c r="O76" s="588" t="s">
+      <c r="O76" s="593" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="591">
+      <c r="P76" s="596">
         <v>45229</v>
       </c>
       <c r="Q76" s="214"/>
@@ -7296,18 +7302,18 @@
       <c r="V76" s="78"/>
     </row>
     <row r="77" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="575"/>
+      <c r="A77" s="580"/>
       <c r="B77" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="578"/>
+      <c r="C77" s="583"/>
       <c r="D77" s="213"/>
       <c r="E77" s="91"/>
       <c r="F77" s="494">
         <v>32.32</v>
       </c>
-      <c r="G77" s="581"/>
-      <c r="H77" s="584"/>
+      <c r="G77" s="586"/>
+      <c r="H77" s="589"/>
       <c r="I77" s="492">
         <v>32.32</v>
       </c>
@@ -7318,14 +7324,14 @@
       <c r="K77" s="235">
         <v>32.32</v>
       </c>
-      <c r="L77" s="586"/>
+      <c r="L77" s="591"/>
       <c r="M77" s="487"/>
       <c r="N77" s="50">
         <f t="shared" si="1"/>
         <v>1044.5824</v>
       </c>
-      <c r="O77" s="589"/>
-      <c r="P77" s="592"/>
+      <c r="O77" s="594"/>
+      <c r="P77" s="597"/>
       <c r="Q77" s="214"/>
       <c r="R77" s="221"/>
       <c r="S77" s="76"/>
@@ -7334,18 +7340,18 @@
       <c r="V77" s="78"/>
     </row>
     <row r="78" spans="1:22" s="208" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="576"/>
+      <c r="A78" s="581"/>
       <c r="B78" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="579"/>
+      <c r="C78" s="584"/>
       <c r="D78" s="217"/>
       <c r="E78" s="91"/>
       <c r="F78" s="493">
         <v>110.74</v>
       </c>
-      <c r="G78" s="582"/>
-      <c r="H78" s="585"/>
+      <c r="G78" s="587"/>
+      <c r="H78" s="590"/>
       <c r="I78" s="491">
         <v>110.74</v>
       </c>
@@ -7356,14 +7362,14 @@
       <c r="K78" s="235">
         <v>110.74</v>
       </c>
-      <c r="L78" s="587"/>
+      <c r="L78" s="592"/>
       <c r="M78" s="487"/>
       <c r="N78" s="202">
         <f t="shared" si="1"/>
         <v>12263.347599999999</v>
       </c>
-      <c r="O78" s="590"/>
-      <c r="P78" s="593"/>
+      <c r="O78" s="595"/>
+      <c r="P78" s="598"/>
       <c r="Q78" s="214"/>
       <c r="R78" s="231"/>
       <c r="S78" s="76"/>
@@ -14529,11 +14535,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F300" s="560" t="s">
+      <c r="F300" s="615" t="s">
         <v>26</v>
       </c>
-      <c r="G300" s="560"/>
-      <c r="H300" s="561"/>
+      <c r="G300" s="615"/>
+      <c r="H300" s="616"/>
       <c r="I300" s="397">
         <f>SUM(I5:I299)</f>
         <v>1194.54</v>
@@ -15098,14 +15104,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="F300:H300"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="P64:P65"/>
     <mergeCell ref="A76:A78"/>
@@ -15122,16 +15130,14 @@
     <mergeCell ref="H66:H69"/>
     <mergeCell ref="L66:L69"/>
     <mergeCell ref="O66:O69"/>
-    <mergeCell ref="F300:H300"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="O71:O74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15175,49 +15181,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="551" t="s">
+      <c r="A1" s="625" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="551"/>
-      <c r="C1" s="551"/>
-      <c r="D1" s="551"/>
-      <c r="E1" s="551"/>
-      <c r="F1" s="551"/>
-      <c r="G1" s="551"/>
-      <c r="H1" s="551"/>
-      <c r="I1" s="551"/>
-      <c r="J1" s="551"/>
+      <c r="B1" s="625"/>
+      <c r="C1" s="625"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="552" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="552"/>
+      <c r="S1" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="626"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="554" t="s">
+      <c r="W1" s="628" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="555"/>
+      <c r="X1" s="629"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="551"/>
-      <c r="B2" s="551"/>
-      <c r="C2" s="551"/>
-      <c r="D2" s="551"/>
-      <c r="E2" s="551"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="551"/>
-      <c r="J2" s="551"/>
+      <c r="A2" s="625"/>
+      <c r="B2" s="625"/>
+      <c r="C2" s="625"/>
+      <c r="D2" s="625"/>
+      <c r="E2" s="625"/>
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="625"/>
+      <c r="I2" s="625"/>
+      <c r="J2" s="625"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -15225,8 +15231,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="553"/>
-      <c r="T2" s="553"/>
+      <c r="S2" s="627"/>
+      <c r="T2" s="627"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -15271,10 +15277,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="556" t="s">
+      <c r="O3" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="557"/>
+      <c r="P3" s="631"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -15567,8 +15573,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="558"/>
-      <c r="M12" s="559"/>
+      <c r="L12" s="632"/>
+      <c r="M12" s="633"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17358,13 +17364,13 @@
       <c r="V63" s="207"/>
     </row>
     <row r="64" spans="1:24" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="564" t="s">
+      <c r="A64" s="619" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="635" t="s">
+      <c r="C64" s="667" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="209"/>
@@ -17372,10 +17378,10 @@
       <c r="F64" s="493">
         <v>127.38</v>
       </c>
-      <c r="G64" s="599">
+      <c r="G64" s="604">
         <v>45202</v>
       </c>
-      <c r="H64" s="568" t="s">
+      <c r="H64" s="623" t="s">
         <v>35</v>
       </c>
       <c r="I64" s="491">
@@ -17388,7 +17394,7 @@
       <c r="K64" s="235">
         <v>70</v>
       </c>
-      <c r="L64" s="638" t="s">
+      <c r="L64" s="670" t="s">
         <v>37</v>
       </c>
       <c r="M64" s="487"/>
@@ -17396,10 +17402,10 @@
         <f t="shared" si="1"/>
         <v>8916.6</v>
       </c>
-      <c r="O64" s="649" t="s">
+      <c r="O64" s="655" t="s">
         <v>36</v>
       </c>
-      <c r="P64" s="652">
+      <c r="P64" s="658">
         <v>45229</v>
       </c>
       <c r="Q64" s="212"/>
@@ -17410,18 +17416,18 @@
       <c r="V64" s="78"/>
     </row>
     <row r="65" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="634"/>
+      <c r="A65" s="666"/>
       <c r="B65" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="636"/>
+      <c r="C65" s="668"/>
       <c r="D65" s="213"/>
       <c r="E65" s="91"/>
       <c r="F65" s="493">
         <v>35.1</v>
       </c>
-      <c r="G65" s="600"/>
-      <c r="H65" s="569"/>
+      <c r="G65" s="605"/>
+      <c r="H65" s="624"/>
       <c r="I65" s="491">
         <v>35.1</v>
       </c>
@@ -17432,14 +17438,14 @@
       <c r="K65" s="235">
         <v>60</v>
       </c>
-      <c r="L65" s="639"/>
+      <c r="L65" s="671"/>
       <c r="M65" s="487"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>2106</v>
       </c>
-      <c r="O65" s="650"/>
-      <c r="P65" s="653"/>
+      <c r="O65" s="656"/>
+      <c r="P65" s="659"/>
       <c r="Q65" s="214"/>
       <c r="R65" s="177"/>
       <c r="S65" s="76"/>
@@ -17448,18 +17454,18 @@
       <c r="V65" s="78"/>
     </row>
     <row r="66" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="634"/>
+      <c r="A66" s="666"/>
       <c r="B66" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="636"/>
+      <c r="C66" s="668"/>
       <c r="D66" s="213"/>
       <c r="E66" s="91"/>
       <c r="F66" s="493">
         <v>94.5</v>
       </c>
-      <c r="G66" s="600"/>
-      <c r="H66" s="569"/>
+      <c r="G66" s="605"/>
+      <c r="H66" s="624"/>
       <c r="I66" s="491">
         <v>94.5</v>
       </c>
@@ -17470,14 +17476,14 @@
       <c r="K66" s="235">
         <v>110</v>
       </c>
-      <c r="L66" s="639"/>
+      <c r="L66" s="671"/>
       <c r="M66" s="487"/>
       <c r="N66" s="50">
         <f t="shared" si="1"/>
         <v>10395</v>
       </c>
-      <c r="O66" s="650"/>
-      <c r="P66" s="653"/>
+      <c r="O66" s="656"/>
+      <c r="P66" s="659"/>
       <c r="Q66" s="214"/>
       <c r="R66" s="177"/>
       <c r="S66" s="76"/>
@@ -17486,18 +17492,18 @@
       <c r="V66" s="78"/>
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="565"/>
+      <c r="A67" s="620"/>
       <c r="B67" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="637"/>
+      <c r="C67" s="669"/>
       <c r="D67" s="213"/>
       <c r="E67" s="91"/>
       <c r="F67" s="494">
         <v>100.88</v>
       </c>
-      <c r="G67" s="601"/>
-      <c r="H67" s="569"/>
+      <c r="G67" s="606"/>
+      <c r="H67" s="624"/>
       <c r="I67" s="492">
         <v>100.88</v>
       </c>
@@ -17508,14 +17514,14 @@
       <c r="K67" s="235">
         <v>38</v>
       </c>
-      <c r="L67" s="640"/>
+      <c r="L67" s="672"/>
       <c r="M67" s="487"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>3833.4399999999996</v>
       </c>
-      <c r="O67" s="651"/>
-      <c r="P67" s="654"/>
+      <c r="O67" s="657"/>
+      <c r="P67" s="660"/>
       <c r="Q67" s="214"/>
       <c r="R67" s="177"/>
       <c r="S67" s="76"/>
@@ -17524,13 +17530,13 @@
       <c r="V67" s="78"/>
     </row>
     <row r="68" spans="1:22" s="208" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="574" t="s">
+      <c r="A68" s="579" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="671" t="s">
+      <c r="C68" s="645" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="217"/>
@@ -17538,8 +17544,8 @@
       <c r="F68" s="493">
         <v>43.58</v>
       </c>
-      <c r="G68" s="655"/>
-      <c r="H68" s="657"/>
+      <c r="G68" s="661"/>
+      <c r="H68" s="663"/>
       <c r="I68" s="491"/>
       <c r="J68" s="229">
         <f t="shared" si="0"/>
@@ -17562,18 +17568,18 @@
       <c r="V68" s="207"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A69" s="575"/>
+      <c r="A69" s="580"/>
       <c r="B69" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="672"/>
+      <c r="C69" s="646"/>
       <c r="D69" s="213"/>
       <c r="E69" s="91"/>
       <c r="F69" s="493">
         <v>32.32</v>
       </c>
-      <c r="G69" s="656"/>
-      <c r="H69" s="658"/>
+      <c r="G69" s="662"/>
+      <c r="H69" s="664"/>
       <c r="I69" s="491"/>
       <c r="J69" s="229">
         <f t="shared" si="0"/>
@@ -17590,28 +17596,28 @@
       <c r="P69" s="464"/>
       <c r="Q69" s="241"/>
       <c r="R69" s="221"/>
-      <c r="S69" s="668">
+      <c r="S69" s="642">
         <v>28000</v>
       </c>
-      <c r="T69" s="668" t="s">
+      <c r="T69" s="642" t="s">
         <v>24</v>
       </c>
       <c r="U69" s="222"/>
       <c r="V69" s="78"/>
     </row>
     <row r="70" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="575"/>
+      <c r="A70" s="580"/>
       <c r="B70" s="521" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="672"/>
+      <c r="C70" s="646"/>
       <c r="D70" s="213"/>
       <c r="E70" s="91"/>
       <c r="F70" s="493">
         <v>110.74</v>
       </c>
-      <c r="G70" s="656"/>
-      <c r="H70" s="659"/>
+      <c r="G70" s="662"/>
+      <c r="H70" s="665"/>
       <c r="I70" s="491"/>
       <c r="J70" s="229">
         <f t="shared" si="0"/>
@@ -17628,8 +17634,8 @@
       <c r="P70" s="464"/>
       <c r="Q70" s="241"/>
       <c r="R70" s="221"/>
-      <c r="S70" s="669"/>
-      <c r="T70" s="669"/>
+      <c r="S70" s="643"/>
+      <c r="T70" s="643"/>
       <c r="U70" s="222"/>
       <c r="V70" s="78"/>
     </row>
@@ -17674,26 +17680,26 @@
       <c r="P71" s="464"/>
       <c r="Q71" s="241"/>
       <c r="R71" s="221"/>
-      <c r="S71" s="669"/>
-      <c r="T71" s="669"/>
+      <c r="S71" s="643"/>
+      <c r="T71" s="643"/>
       <c r="U71" s="222"/>
       <c r="V71" s="78"/>
     </row>
     <row r="72" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="660" t="s">
+      <c r="A72" s="634" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="662" t="s">
+      <c r="B72" s="636" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="663"/>
+      <c r="C72" s="637"/>
       <c r="D72" s="517"/>
       <c r="E72" s="517"/>
       <c r="F72" s="517"/>
-      <c r="G72" s="666">
+      <c r="G72" s="640">
         <v>45230</v>
       </c>
-      <c r="H72" s="647" t="s">
+      <c r="H72" s="653" t="s">
         <v>57</v>
       </c>
       <c r="I72" s="483">
@@ -17718,20 +17724,20 @@
       <c r="P72" s="464"/>
       <c r="Q72" s="241"/>
       <c r="R72" s="221"/>
-      <c r="S72" s="669"/>
-      <c r="T72" s="669"/>
+      <c r="S72" s="643"/>
+      <c r="T72" s="643"/>
       <c r="U72" s="222"/>
       <c r="V72" s="78"/>
     </row>
     <row r="73" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="661"/>
-      <c r="B73" s="664"/>
-      <c r="C73" s="665"/>
+      <c r="A73" s="635"/>
+      <c r="B73" s="638"/>
+      <c r="C73" s="639"/>
       <c r="D73" s="518"/>
       <c r="E73" s="518"/>
       <c r="F73" s="518"/>
-      <c r="G73" s="667"/>
-      <c r="H73" s="648"/>
+      <c r="G73" s="641"/>
+      <c r="H73" s="654"/>
       <c r="I73" s="483"/>
       <c r="J73" s="229"/>
       <c r="K73" s="226"/>
@@ -17745,8 +17751,8 @@
       <c r="P73" s="464"/>
       <c r="Q73" s="241"/>
       <c r="R73" s="221"/>
-      <c r="S73" s="669"/>
-      <c r="T73" s="669"/>
+      <c r="S73" s="643"/>
+      <c r="T73" s="643"/>
       <c r="U73" s="222"/>
       <c r="V73" s="78"/>
     </row>
@@ -17772,8 +17778,8 @@
       <c r="P74" s="464"/>
       <c r="Q74" s="241"/>
       <c r="R74" s="221"/>
-      <c r="S74" s="669"/>
-      <c r="T74" s="669"/>
+      <c r="S74" s="643"/>
+      <c r="T74" s="643"/>
       <c r="U74" s="222"/>
       <c r="V74" s="78"/>
     </row>
@@ -17802,8 +17808,8 @@
       <c r="P75" s="464"/>
       <c r="Q75" s="241"/>
       <c r="R75" s="221"/>
-      <c r="S75" s="670"/>
-      <c r="T75" s="670"/>
+      <c r="S75" s="644"/>
+      <c r="T75" s="644"/>
       <c r="U75" s="222"/>
       <c r="V75" s="78"/>
     </row>
@@ -17832,10 +17838,10 @@
       <c r="P76" s="464"/>
       <c r="Q76" s="241"/>
       <c r="R76" s="231"/>
-      <c r="S76" s="641">
+      <c r="S76" s="647">
         <v>28000</v>
       </c>
-      <c r="T76" s="644" t="s">
+      <c r="T76" s="650" t="s">
         <v>25</v>
       </c>
       <c r="U76" s="232"/>
@@ -17866,8 +17872,8 @@
       <c r="P77" s="464"/>
       <c r="Q77" s="241"/>
       <c r="R77" s="221"/>
-      <c r="S77" s="642"/>
-      <c r="T77" s="645"/>
+      <c r="S77" s="648"/>
+      <c r="T77" s="651"/>
       <c r="U77" s="222"/>
       <c r="V77" s="78"/>
     </row>
@@ -17895,8 +17901,8 @@
       <c r="P78" s="464"/>
       <c r="Q78" s="241"/>
       <c r="R78" s="221"/>
-      <c r="S78" s="642"/>
-      <c r="T78" s="645"/>
+      <c r="S78" s="648"/>
+      <c r="T78" s="651"/>
       <c r="U78" s="222"/>
       <c r="V78" s="78"/>
     </row>
@@ -17925,8 +17931,8 @@
       <c r="P79" s="464"/>
       <c r="Q79" s="241"/>
       <c r="R79" s="221"/>
-      <c r="S79" s="643"/>
-      <c r="T79" s="646"/>
+      <c r="S79" s="649"/>
+      <c r="T79" s="652"/>
       <c r="U79" s="222"/>
       <c r="V79" s="78"/>
     </row>
@@ -24793,11 +24799,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F291" s="560" t="s">
+      <c r="F291" s="615" t="s">
         <v>26</v>
       </c>
-      <c r="G291" s="560"/>
-      <c r="H291" s="561"/>
+      <c r="G291" s="615"/>
+      <c r="H291" s="616"/>
       <c r="I291" s="397">
         <f>SUM(I5:I290)</f>
         <v>55677.99</v>
@@ -25362,13 +25368,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:C73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="S69:S75"/>
-    <mergeCell ref="T69:T75"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="L64:L67"/>
     <mergeCell ref="S76:S79"/>
     <mergeCell ref="T76:T79"/>
     <mergeCell ref="F291:H291"/>
@@ -25377,16 +25386,13 @@
     <mergeCell ref="P64:P67"/>
     <mergeCell ref="G68:G70"/>
     <mergeCell ref="H68:H70"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="L64:L67"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:C73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="S69:S75"/>
+    <mergeCell ref="T69:T75"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C68:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25399,9 +25405,9 @@
   </sheetPr>
   <dimension ref="A1:X324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
+      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -25431,49 +25437,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="551" t="s">
+      <c r="A1" s="625" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="551"/>
-      <c r="C1" s="551"/>
-      <c r="D1" s="551"/>
-      <c r="E1" s="551"/>
-      <c r="F1" s="551"/>
-      <c r="G1" s="551"/>
-      <c r="H1" s="551"/>
-      <c r="I1" s="551"/>
-      <c r="J1" s="551"/>
+      <c r="B1" s="625"/>
+      <c r="C1" s="625"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="552" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="552"/>
+      <c r="S1" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="626"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="554" t="s">
+      <c r="W1" s="628" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="555"/>
+      <c r="X1" s="629"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="551"/>
-      <c r="B2" s="551"/>
-      <c r="C2" s="551"/>
-      <c r="D2" s="551"/>
-      <c r="E2" s="551"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="551"/>
-      <c r="J2" s="551"/>
+      <c r="A2" s="625"/>
+      <c r="B2" s="625"/>
+      <c r="C2" s="625"/>
+      <c r="D2" s="625"/>
+      <c r="E2" s="625"/>
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="625"/>
+      <c r="I2" s="625"/>
+      <c r="J2" s="625"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -25481,8 +25487,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="553"/>
-      <c r="T2" s="553"/>
+      <c r="S2" s="627"/>
+      <c r="T2" s="627"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -25527,10 +25533,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="556" t="s">
+      <c r="O3" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="557"/>
+      <c r="P3" s="631"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -25823,8 +25829,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="558"/>
-      <c r="M12" s="559"/>
+      <c r="L12" s="632"/>
+      <c r="M12" s="633"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27663,26 +27669,42 @@
       <c r="U64" s="77"/>
       <c r="V64" s="78"/>
     </row>
-    <row r="65" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="247"/>
-      <c r="B65" s="530"/>
-      <c r="C65" s="531"/>
+    <row r="65" spans="1:22" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="247" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="530" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="550" t="s">
+        <v>68</v>
+      </c>
       <c r="D65" s="534"/>
       <c r="E65" s="91"/>
-      <c r="F65" s="483"/>
-      <c r="G65" s="532"/>
-      <c r="H65" s="533"/>
-      <c r="I65" s="483"/>
+      <c r="F65" s="483">
+        <v>1200</v>
+      </c>
+      <c r="G65" s="532">
+        <v>45295</v>
+      </c>
+      <c r="H65" s="533" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" s="483">
+        <v>1200</v>
+      </c>
       <c r="J65" s="229">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K65" s="226"/>
+      <c r="K65" s="226">
+        <v>260</v>
+      </c>
       <c r="L65" s="542"/>
       <c r="M65" s="219"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312000</v>
       </c>
       <c r="O65" s="546"/>
       <c r="P65" s="547"/>
@@ -27811,7 +27833,7 @@
       <c r="S69" s="673">
         <v>28000</v>
       </c>
-      <c r="T69" s="668" t="s">
+      <c r="T69" s="642" t="s">
         <v>24</v>
       </c>
       <c r="U69" s="222"/>
@@ -27843,7 +27865,7 @@
       <c r="Q70" s="241"/>
       <c r="R70" s="177"/>
       <c r="S70" s="674"/>
-      <c r="T70" s="669"/>
+      <c r="T70" s="643"/>
       <c r="U70" s="222"/>
       <c r="V70" s="78"/>
     </row>
@@ -27873,7 +27895,7 @@
       <c r="Q71" s="241"/>
       <c r="R71" s="177"/>
       <c r="S71" s="674"/>
-      <c r="T71" s="669"/>
+      <c r="T71" s="643"/>
       <c r="U71" s="222"/>
       <c r="V71" s="78"/>
     </row>
@@ -27903,7 +27925,7 @@
       <c r="Q72" s="241"/>
       <c r="R72" s="177"/>
       <c r="S72" s="674"/>
-      <c r="T72" s="669"/>
+      <c r="T72" s="643"/>
       <c r="U72" s="222"/>
       <c r="V72" s="78"/>
     </row>
@@ -27930,7 +27952,7 @@
       <c r="Q73" s="241"/>
       <c r="R73" s="177"/>
       <c r="S73" s="674"/>
-      <c r="T73" s="669"/>
+      <c r="T73" s="643"/>
       <c r="U73" s="222"/>
       <c r="V73" s="78"/>
     </row>
@@ -27956,8 +27978,8 @@
       <c r="P74" s="464"/>
       <c r="Q74" s="241"/>
       <c r="R74" s="221"/>
-      <c r="S74" s="669"/>
-      <c r="T74" s="669"/>
+      <c r="S74" s="643"/>
+      <c r="T74" s="643"/>
       <c r="U74" s="222"/>
       <c r="V74" s="78"/>
     </row>
@@ -27986,8 +28008,8 @@
       <c r="P75" s="464"/>
       <c r="Q75" s="241"/>
       <c r="R75" s="221"/>
-      <c r="S75" s="670"/>
-      <c r="T75" s="670"/>
+      <c r="S75" s="644"/>
+      <c r="T75" s="644"/>
       <c r="U75" s="222"/>
       <c r="V75" s="78"/>
     </row>
@@ -28016,10 +28038,10 @@
       <c r="P76" s="464"/>
       <c r="Q76" s="241"/>
       <c r="R76" s="231"/>
-      <c r="S76" s="641">
+      <c r="S76" s="647">
         <v>28000</v>
       </c>
-      <c r="T76" s="644" t="s">
+      <c r="T76" s="650" t="s">
         <v>25</v>
       </c>
       <c r="U76" s="232"/>
@@ -28050,8 +28072,8 @@
       <c r="P77" s="464"/>
       <c r="Q77" s="241"/>
       <c r="R77" s="221"/>
-      <c r="S77" s="642"/>
-      <c r="T77" s="645"/>
+      <c r="S77" s="648"/>
+      <c r="T77" s="651"/>
       <c r="U77" s="222"/>
       <c r="V77" s="78"/>
     </row>
@@ -28079,8 +28101,8 @@
       <c r="P78" s="464"/>
       <c r="Q78" s="241"/>
       <c r="R78" s="221"/>
-      <c r="S78" s="642"/>
-      <c r="T78" s="645"/>
+      <c r="S78" s="648"/>
+      <c r="T78" s="651"/>
       <c r="U78" s="222"/>
       <c r="V78" s="78"/>
     </row>
@@ -28109,8 +28131,8 @@
       <c r="P79" s="464"/>
       <c r="Q79" s="241"/>
       <c r="R79" s="221"/>
-      <c r="S79" s="643"/>
-      <c r="T79" s="646"/>
+      <c r="S79" s="649"/>
+      <c r="T79" s="652"/>
       <c r="U79" s="222"/>
       <c r="V79" s="78"/>
     </row>
@@ -34977,14 +34999,14 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F291" s="560" t="s">
+      <c r="F291" s="615" t="s">
         <v>26</v>
       </c>
-      <c r="G291" s="560"/>
-      <c r="H291" s="561"/>
+      <c r="G291" s="615"/>
+      <c r="H291" s="616"/>
       <c r="I291" s="397">
         <f>SUM(I5:I290)</f>
-        <v>480</v>
+        <v>1680</v>
       </c>
       <c r="J291" s="398"/>
       <c r="K291" s="394"/>
@@ -35082,7 +35104,7 @@
       <c r="M295" s="417"/>
       <c r="N295" s="418">
         <f>SUM(N5:N294)</f>
-        <v>124800</v>
+        <v>436800</v>
       </c>
       <c r="O295" s="419"/>
       <c r="Q295" s="420">
@@ -35140,7 +35162,7 @@
       <c r="M298" s="435"/>
       <c r="N298" s="436">
         <f>V295+S295+Q295+N295+L295</f>
-        <v>180800</v>
+        <v>492800</v>
       </c>
       <c r="O298" s="437"/>
       <c r="R298" s="404"/>
@@ -35546,16 +35568,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S76:S79"/>
+    <mergeCell ref="T76:T79"/>
+    <mergeCell ref="F291:H291"/>
+    <mergeCell ref="S69:S75"/>
+    <mergeCell ref="T69:T75"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="S76:S79"/>
-    <mergeCell ref="T76:T79"/>
-    <mergeCell ref="F291:H291"/>
-    <mergeCell ref="S69:S75"/>
-    <mergeCell ref="T69:T75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/ENTRADAS CENTRAL PRODUCCION  Diciembre-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/ENTRADAS CENTRAL PRODUCCION  Diciembre-23.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="70">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -768,7 +768,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +838,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2374,7 +2380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="675">
+  <cellXfs count="677">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3866,6 +3872,183 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3938,182 +4121,83 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4154,89 +4238,17 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4247,6 +4259,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF008000"/>
     </mruColors>
   </colors>
@@ -4561,49 +4574,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="625" t="s">
+      <c r="A1" s="551" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="625"/>
-      <c r="C1" s="625"/>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="626"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="628" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="629"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="625"/>
-      <c r="B2" s="625"/>
-      <c r="C2" s="625"/>
-      <c r="D2" s="625"/>
-      <c r="E2" s="625"/>
-      <c r="F2" s="625"/>
-      <c r="G2" s="625"/>
-      <c r="H2" s="625"/>
-      <c r="I2" s="625"/>
-      <c r="J2" s="625"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -4611,8 +4624,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="627"/>
-      <c r="T2" s="627"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -4657,10 +4670,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="630" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="631"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -4953,8 +4966,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="632"/>
-      <c r="M12" s="633"/>
+      <c r="L12" s="558"/>
+      <c r="M12" s="559"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6744,13 +6757,13 @@
       <c r="V63" s="207"/>
     </row>
     <row r="64" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="619" t="s">
+      <c r="A64" s="564" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="617" t="s">
+      <c r="C64" s="562" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="209"/>
@@ -6758,10 +6771,10 @@
       <c r="F64" s="493">
         <v>146</v>
       </c>
-      <c r="G64" s="621">
+      <c r="G64" s="566">
         <v>45182</v>
       </c>
-      <c r="H64" s="623" t="s">
+      <c r="H64" s="568" t="s">
         <v>41</v>
       </c>
       <c r="I64" s="491">
@@ -6774,7 +6787,7 @@
       <c r="K64" s="235">
         <v>38</v>
       </c>
-      <c r="L64" s="599" t="s">
+      <c r="L64" s="594" t="s">
         <v>42</v>
       </c>
       <c r="M64" s="487"/>
@@ -6782,10 +6795,10 @@
         <f t="shared" si="1"/>
         <v>5548</v>
       </c>
-      <c r="O64" s="575" t="s">
+      <c r="O64" s="570" t="s">
         <v>21</v>
       </c>
-      <c r="P64" s="577">
+      <c r="P64" s="572">
         <v>45229</v>
       </c>
       <c r="Q64" s="212"/>
@@ -6796,18 +6809,18 @@
       <c r="V64" s="78"/>
     </row>
     <row r="65" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="620"/>
+      <c r="A65" s="565"/>
       <c r="B65" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="618"/>
+      <c r="C65" s="563"/>
       <c r="D65" s="213"/>
       <c r="E65" s="91"/>
       <c r="F65" s="493">
         <v>185</v>
       </c>
-      <c r="G65" s="622"/>
-      <c r="H65" s="624"/>
+      <c r="G65" s="567"/>
+      <c r="H65" s="569"/>
       <c r="I65" s="491">
         <v>185</v>
       </c>
@@ -6818,14 +6831,14 @@
       <c r="K65" s="235">
         <v>38</v>
       </c>
-      <c r="L65" s="600"/>
+      <c r="L65" s="595"/>
       <c r="M65" s="487"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>7030</v>
       </c>
-      <c r="O65" s="576"/>
-      <c r="P65" s="578"/>
+      <c r="O65" s="571"/>
+      <c r="P65" s="573"/>
       <c r="Q65" s="214"/>
       <c r="R65" s="177"/>
       <c r="S65" s="76"/>
@@ -6834,13 +6847,13 @@
       <c r="V65" s="78"/>
     </row>
     <row r="66" spans="1:22" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="579" t="s">
+      <c r="A66" s="574" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="601" t="s">
+      <c r="C66" s="596" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="213"/>
@@ -6848,10 +6861,10 @@
       <c r="F66" s="493">
         <v>163.4</v>
       </c>
-      <c r="G66" s="604">
+      <c r="G66" s="599">
         <v>45188</v>
       </c>
-      <c r="H66" s="607" t="s">
+      <c r="H66" s="602" t="s">
         <v>47</v>
       </c>
       <c r="I66" s="491">
@@ -6864,7 +6877,7 @@
       <c r="K66" s="235">
         <v>163.4</v>
       </c>
-      <c r="L66" s="610" t="s">
+      <c r="L66" s="605" t="s">
         <v>48</v>
       </c>
       <c r="M66" s="487"/>
@@ -6872,10 +6885,10 @@
         <f t="shared" si="1"/>
         <v>26699.56</v>
       </c>
-      <c r="O66" s="612" t="s">
+      <c r="O66" s="607" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="551">
+      <c r="P66" s="610">
         <v>45229</v>
       </c>
       <c r="Q66" s="214"/>
@@ -6886,18 +6899,18 @@
       <c r="V66" s="78"/>
     </row>
     <row r="67" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="580"/>
+      <c r="A67" s="575"/>
       <c r="B67" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="602"/>
+      <c r="C67" s="597"/>
       <c r="D67" s="213"/>
       <c r="E67" s="91"/>
       <c r="F67" s="493">
         <v>85.04</v>
       </c>
-      <c r="G67" s="605"/>
-      <c r="H67" s="608"/>
+      <c r="G67" s="600"/>
+      <c r="H67" s="603"/>
       <c r="I67" s="491">
         <v>85.04</v>
       </c>
@@ -6908,14 +6921,14 @@
       <c r="K67" s="235">
         <v>85.04</v>
       </c>
-      <c r="L67" s="611"/>
+      <c r="L67" s="606"/>
       <c r="M67" s="487"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>7231.8016000000007</v>
       </c>
-      <c r="O67" s="613"/>
-      <c r="P67" s="552"/>
+      <c r="O67" s="608"/>
+      <c r="P67" s="611"/>
       <c r="Q67" s="214"/>
       <c r="R67" s="221"/>
       <c r="S67" s="76"/>
@@ -6924,18 +6937,18 @@
       <c r="V67" s="78"/>
     </row>
     <row r="68" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="580"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="602"/>
+      <c r="C68" s="597"/>
       <c r="D68" s="213"/>
       <c r="E68" s="91"/>
       <c r="F68" s="493">
         <v>123.64</v>
       </c>
-      <c r="G68" s="605"/>
-      <c r="H68" s="608"/>
+      <c r="G68" s="600"/>
+      <c r="H68" s="603"/>
       <c r="I68" s="491">
         <v>123.64</v>
       </c>
@@ -6946,14 +6959,14 @@
       <c r="K68" s="235">
         <v>123.64</v>
       </c>
-      <c r="L68" s="611"/>
+      <c r="L68" s="606"/>
       <c r="M68" s="487"/>
       <c r="N68" s="50">
         <f t="shared" si="1"/>
         <v>15286.8496</v>
       </c>
-      <c r="O68" s="613"/>
-      <c r="P68" s="552"/>
+      <c r="O68" s="608"/>
+      <c r="P68" s="611"/>
       <c r="Q68" s="214"/>
       <c r="R68" s="221"/>
       <c r="S68" s="76"/>
@@ -6962,18 +6975,18 @@
       <c r="V68" s="78"/>
     </row>
     <row r="69" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="581"/>
+      <c r="A69" s="576"/>
       <c r="B69" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="603"/>
+      <c r="C69" s="598"/>
       <c r="D69" s="213"/>
       <c r="E69" s="91"/>
       <c r="F69" s="493">
         <v>68.680000000000007</v>
       </c>
-      <c r="G69" s="606"/>
-      <c r="H69" s="609"/>
+      <c r="G69" s="601"/>
+      <c r="H69" s="604"/>
       <c r="I69" s="491">
         <v>68.680000000000007</v>
       </c>
@@ -6984,14 +6997,14 @@
       <c r="K69" s="235">
         <v>68.680000000000007</v>
       </c>
-      <c r="L69" s="611"/>
+      <c r="L69" s="606"/>
       <c r="M69" s="487"/>
       <c r="N69" s="50">
         <f t="shared" si="1"/>
         <v>4716.9424000000008</v>
       </c>
-      <c r="O69" s="614"/>
-      <c r="P69" s="553"/>
+      <c r="O69" s="609"/>
+      <c r="P69" s="612"/>
       <c r="Q69" s="214"/>
       <c r="R69" s="221"/>
       <c r="S69" s="76"/>
@@ -7054,13 +7067,13 @@
       <c r="V70" s="78"/>
     </row>
     <row r="71" spans="1:22" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="557" t="s">
+      <c r="A71" s="616" t="s">
         <v>30</v>
       </c>
       <c r="B71" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="560" t="s">
+      <c r="C71" s="619" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="213"/>
@@ -7068,10 +7081,10 @@
       <c r="F71" s="493">
         <v>27.36</v>
       </c>
-      <c r="G71" s="563">
+      <c r="G71" s="622">
         <v>45195</v>
       </c>
-      <c r="H71" s="566" t="s">
+      <c r="H71" s="625" t="s">
         <v>53</v>
       </c>
       <c r="I71" s="491">
@@ -7084,7 +7097,7 @@
       <c r="K71" s="235">
         <v>70</v>
       </c>
-      <c r="L71" s="569" t="s">
+      <c r="L71" s="628" t="s">
         <v>54</v>
       </c>
       <c r="M71" s="487"/>
@@ -7092,10 +7105,10 @@
         <f t="shared" si="1"/>
         <v>1915.2</v>
       </c>
-      <c r="O71" s="572" t="s">
+      <c r="O71" s="631" t="s">
         <v>21</v>
       </c>
-      <c r="P71" s="554">
+      <c r="P71" s="613">
         <v>45229</v>
       </c>
       <c r="Q71" s="214"/>
@@ -7106,18 +7119,18 @@
       <c r="V71" s="78"/>
     </row>
     <row r="72" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="558"/>
+      <c r="A72" s="617"/>
       <c r="B72" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="561"/>
+      <c r="C72" s="620"/>
       <c r="D72" s="213"/>
       <c r="E72" s="91"/>
       <c r="F72" s="493">
         <v>58.08</v>
       </c>
-      <c r="G72" s="564"/>
-      <c r="H72" s="567"/>
+      <c r="G72" s="623"/>
+      <c r="H72" s="626"/>
       <c r="I72" s="491">
         <v>58.08</v>
       </c>
@@ -7128,14 +7141,14 @@
       <c r="K72" s="235">
         <v>70</v>
       </c>
-      <c r="L72" s="570"/>
+      <c r="L72" s="629"/>
       <c r="M72" s="487"/>
       <c r="N72" s="50">
         <f t="shared" si="1"/>
         <v>4065.6</v>
       </c>
-      <c r="O72" s="573"/>
-      <c r="P72" s="555"/>
+      <c r="O72" s="632"/>
+      <c r="P72" s="614"/>
       <c r="Q72" s="214"/>
       <c r="R72" s="221"/>
       <c r="S72" s="76"/>
@@ -7144,18 +7157,18 @@
       <c r="V72" s="78"/>
     </row>
     <row r="73" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="558"/>
+      <c r="A73" s="617"/>
       <c r="B73" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="561"/>
+      <c r="C73" s="620"/>
       <c r="D73" s="213"/>
       <c r="E73" s="91"/>
       <c r="F73" s="493">
         <v>30.02</v>
       </c>
-      <c r="G73" s="564"/>
-      <c r="H73" s="567"/>
+      <c r="G73" s="623"/>
+      <c r="H73" s="626"/>
       <c r="I73" s="491">
         <v>30.02</v>
       </c>
@@ -7166,14 +7179,14 @@
       <c r="K73" s="235">
         <v>38</v>
       </c>
-      <c r="L73" s="570"/>
+      <c r="L73" s="629"/>
       <c r="M73" s="487"/>
       <c r="N73" s="50">
         <f t="shared" si="1"/>
         <v>1140.76</v>
       </c>
-      <c r="O73" s="573"/>
-      <c r="P73" s="555"/>
+      <c r="O73" s="632"/>
+      <c r="P73" s="614"/>
       <c r="Q73" s="214"/>
       <c r="R73" s="221"/>
       <c r="S73" s="76"/>
@@ -7182,18 +7195,18 @@
       <c r="V73" s="78"/>
     </row>
     <row r="74" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="559"/>
+      <c r="A74" s="618"/>
       <c r="B74" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="562"/>
+      <c r="C74" s="621"/>
       <c r="D74" s="213"/>
       <c r="E74" s="91"/>
       <c r="F74" s="493">
         <v>86.18</v>
       </c>
-      <c r="G74" s="565"/>
-      <c r="H74" s="568"/>
+      <c r="G74" s="624"/>
+      <c r="H74" s="627"/>
       <c r="I74" s="491">
         <v>86.18</v>
       </c>
@@ -7204,14 +7217,14 @@
       <c r="K74" s="235">
         <v>60</v>
       </c>
-      <c r="L74" s="571"/>
+      <c r="L74" s="630"/>
       <c r="M74" s="487"/>
       <c r="N74" s="50">
         <f t="shared" si="1"/>
         <v>5170.8</v>
       </c>
-      <c r="O74" s="574"/>
-      <c r="P74" s="556"/>
+      <c r="O74" s="633"/>
+      <c r="P74" s="615"/>
       <c r="Q74" s="214"/>
       <c r="R74" s="221"/>
       <c r="S74" s="76"/>
@@ -7250,13 +7263,13 @@
       <c r="V75" s="78"/>
     </row>
     <row r="76" spans="1:22" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="579" t="s">
+      <c r="A76" s="574" t="s">
         <v>30</v>
       </c>
       <c r="B76" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="582" t="s">
+      <c r="C76" s="577" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="213"/>
@@ -7264,10 +7277,10 @@
       <c r="F76" s="493">
         <v>43.58</v>
       </c>
-      <c r="G76" s="585">
+      <c r="G76" s="580">
         <v>45198</v>
       </c>
-      <c r="H76" s="588" t="s">
+      <c r="H76" s="583" t="s">
         <v>43</v>
       </c>
       <c r="I76" s="491">
@@ -7280,7 +7293,7 @@
       <c r="K76" s="235">
         <v>43.58</v>
       </c>
-      <c r="L76" s="591" t="s">
+      <c r="L76" s="586" t="s">
         <v>44</v>
       </c>
       <c r="M76" s="487"/>
@@ -7288,10 +7301,10 @@
         <f t="shared" si="1"/>
         <v>1899.2163999999998</v>
       </c>
-      <c r="O76" s="593" t="s">
+      <c r="O76" s="588" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="596">
+      <c r="P76" s="591">
         <v>45229</v>
       </c>
       <c r="Q76" s="214"/>
@@ -7302,18 +7315,18 @@
       <c r="V76" s="78"/>
     </row>
     <row r="77" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="580"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="583"/>
+      <c r="C77" s="578"/>
       <c r="D77" s="213"/>
       <c r="E77" s="91"/>
       <c r="F77" s="494">
         <v>32.32</v>
       </c>
-      <c r="G77" s="586"/>
-      <c r="H77" s="589"/>
+      <c r="G77" s="581"/>
+      <c r="H77" s="584"/>
       <c r="I77" s="492">
         <v>32.32</v>
       </c>
@@ -7324,14 +7337,14 @@
       <c r="K77" s="235">
         <v>32.32</v>
       </c>
-      <c r="L77" s="591"/>
+      <c r="L77" s="586"/>
       <c r="M77" s="487"/>
       <c r="N77" s="50">
         <f t="shared" si="1"/>
         <v>1044.5824</v>
       </c>
-      <c r="O77" s="594"/>
-      <c r="P77" s="597"/>
+      <c r="O77" s="589"/>
+      <c r="P77" s="592"/>
       <c r="Q77" s="214"/>
       <c r="R77" s="221"/>
       <c r="S77" s="76"/>
@@ -7340,18 +7353,18 @@
       <c r="V77" s="78"/>
     </row>
     <row r="78" spans="1:22" s="208" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="581"/>
+      <c r="A78" s="576"/>
       <c r="B78" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="584"/>
+      <c r="C78" s="579"/>
       <c r="D78" s="217"/>
       <c r="E78" s="91"/>
       <c r="F78" s="493">
         <v>110.74</v>
       </c>
-      <c r="G78" s="587"/>
-      <c r="H78" s="590"/>
+      <c r="G78" s="582"/>
+      <c r="H78" s="585"/>
       <c r="I78" s="491">
         <v>110.74</v>
       </c>
@@ -7362,14 +7375,14 @@
       <c r="K78" s="235">
         <v>110.74</v>
       </c>
-      <c r="L78" s="592"/>
+      <c r="L78" s="587"/>
       <c r="M78" s="487"/>
       <c r="N78" s="202">
         <f t="shared" si="1"/>
         <v>12263.347599999999</v>
       </c>
-      <c r="O78" s="595"/>
-      <c r="P78" s="598"/>
+      <c r="O78" s="590"/>
+      <c r="P78" s="593"/>
       <c r="Q78" s="214"/>
       <c r="R78" s="231"/>
       <c r="S78" s="76"/>
@@ -14535,11 +14548,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F300" s="615" t="s">
+      <c r="F300" s="560" t="s">
         <v>26</v>
       </c>
-      <c r="G300" s="615"/>
-      <c r="H300" s="616"/>
+      <c r="G300" s="560"/>
+      <c r="H300" s="561"/>
       <c r="I300" s="397">
         <f>SUM(I5:I299)</f>
         <v>1194.54</v>
@@ -15104,16 +15117,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="F300:H300"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="O71:O74"/>
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="P64:P65"/>
     <mergeCell ref="A76:A78"/>
@@ -15130,14 +15141,16 @@
     <mergeCell ref="H66:H69"/>
     <mergeCell ref="L66:L69"/>
     <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="F300:H300"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15181,49 +15194,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="625" t="s">
+      <c r="A1" s="551" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="625"/>
-      <c r="C1" s="625"/>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="626"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="628" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="629"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="625"/>
-      <c r="B2" s="625"/>
-      <c r="C2" s="625"/>
-      <c r="D2" s="625"/>
-      <c r="E2" s="625"/>
-      <c r="F2" s="625"/>
-      <c r="G2" s="625"/>
-      <c r="H2" s="625"/>
-      <c r="I2" s="625"/>
-      <c r="J2" s="625"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -15231,8 +15244,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="627"/>
-      <c r="T2" s="627"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -15277,10 +15290,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="630" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="631"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -15573,8 +15586,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="632"/>
-      <c r="M12" s="633"/>
+      <c r="L12" s="558"/>
+      <c r="M12" s="559"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17364,13 +17377,13 @@
       <c r="V63" s="207"/>
     </row>
     <row r="64" spans="1:24" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="619" t="s">
+      <c r="A64" s="564" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="667" t="s">
+      <c r="C64" s="635" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="209"/>
@@ -17378,10 +17391,10 @@
       <c r="F64" s="493">
         <v>127.38</v>
       </c>
-      <c r="G64" s="604">
+      <c r="G64" s="599">
         <v>45202</v>
       </c>
-      <c r="H64" s="623" t="s">
+      <c r="H64" s="568" t="s">
         <v>35</v>
       </c>
       <c r="I64" s="491">
@@ -17394,7 +17407,7 @@
       <c r="K64" s="235">
         <v>70</v>
       </c>
-      <c r="L64" s="670" t="s">
+      <c r="L64" s="638" t="s">
         <v>37</v>
       </c>
       <c r="M64" s="487"/>
@@ -17402,10 +17415,10 @@
         <f t="shared" si="1"/>
         <v>8916.6</v>
       </c>
-      <c r="O64" s="655" t="s">
+      <c r="O64" s="649" t="s">
         <v>36</v>
       </c>
-      <c r="P64" s="658">
+      <c r="P64" s="652">
         <v>45229</v>
       </c>
       <c r="Q64" s="212"/>
@@ -17416,18 +17429,18 @@
       <c r="V64" s="78"/>
     </row>
     <row r="65" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="666"/>
+      <c r="A65" s="634"/>
       <c r="B65" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="668"/>
+      <c r="C65" s="636"/>
       <c r="D65" s="213"/>
       <c r="E65" s="91"/>
       <c r="F65" s="493">
         <v>35.1</v>
       </c>
-      <c r="G65" s="605"/>
-      <c r="H65" s="624"/>
+      <c r="G65" s="600"/>
+      <c r="H65" s="569"/>
       <c r="I65" s="491">
         <v>35.1</v>
       </c>
@@ -17438,14 +17451,14 @@
       <c r="K65" s="235">
         <v>60</v>
       </c>
-      <c r="L65" s="671"/>
+      <c r="L65" s="639"/>
       <c r="M65" s="487"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>2106</v>
       </c>
-      <c r="O65" s="656"/>
-      <c r="P65" s="659"/>
+      <c r="O65" s="650"/>
+      <c r="P65" s="653"/>
       <c r="Q65" s="214"/>
       <c r="R65" s="177"/>
       <c r="S65" s="76"/>
@@ -17454,18 +17467,18 @@
       <c r="V65" s="78"/>
     </row>
     <row r="66" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="666"/>
+      <c r="A66" s="634"/>
       <c r="B66" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="668"/>
+      <c r="C66" s="636"/>
       <c r="D66" s="213"/>
       <c r="E66" s="91"/>
       <c r="F66" s="493">
         <v>94.5</v>
       </c>
-      <c r="G66" s="605"/>
-      <c r="H66" s="624"/>
+      <c r="G66" s="600"/>
+      <c r="H66" s="569"/>
       <c r="I66" s="491">
         <v>94.5</v>
       </c>
@@ -17476,14 +17489,14 @@
       <c r="K66" s="235">
         <v>110</v>
       </c>
-      <c r="L66" s="671"/>
+      <c r="L66" s="639"/>
       <c r="M66" s="487"/>
       <c r="N66" s="50">
         <f t="shared" si="1"/>
         <v>10395</v>
       </c>
-      <c r="O66" s="656"/>
-      <c r="P66" s="659"/>
+      <c r="O66" s="650"/>
+      <c r="P66" s="653"/>
       <c r="Q66" s="214"/>
       <c r="R66" s="177"/>
       <c r="S66" s="76"/>
@@ -17492,18 +17505,18 @@
       <c r="V66" s="78"/>
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="620"/>
+      <c r="A67" s="565"/>
       <c r="B67" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="669"/>
+      <c r="C67" s="637"/>
       <c r="D67" s="213"/>
       <c r="E67" s="91"/>
       <c r="F67" s="494">
         <v>100.88</v>
       </c>
-      <c r="G67" s="606"/>
-      <c r="H67" s="624"/>
+      <c r="G67" s="601"/>
+      <c r="H67" s="569"/>
       <c r="I67" s="492">
         <v>100.88</v>
       </c>
@@ -17514,14 +17527,14 @@
       <c r="K67" s="235">
         <v>38</v>
       </c>
-      <c r="L67" s="672"/>
+      <c r="L67" s="640"/>
       <c r="M67" s="487"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>3833.4399999999996</v>
       </c>
-      <c r="O67" s="657"/>
-      <c r="P67" s="660"/>
+      <c r="O67" s="651"/>
+      <c r="P67" s="654"/>
       <c r="Q67" s="214"/>
       <c r="R67" s="177"/>
       <c r="S67" s="76"/>
@@ -17530,13 +17543,13 @@
       <c r="V67" s="78"/>
     </row>
     <row r="68" spans="1:22" s="208" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="579" t="s">
+      <c r="A68" s="574" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="645" t="s">
+      <c r="C68" s="671" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="217"/>
@@ -17544,8 +17557,8 @@
       <c r="F68" s="493">
         <v>43.58</v>
       </c>
-      <c r="G68" s="661"/>
-      <c r="H68" s="663"/>
+      <c r="G68" s="655"/>
+      <c r="H68" s="657"/>
       <c r="I68" s="491"/>
       <c r="J68" s="229">
         <f t="shared" si="0"/>
@@ -17568,18 +17581,18 @@
       <c r="V68" s="207"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A69" s="580"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="646"/>
+      <c r="C69" s="672"/>
       <c r="D69" s="213"/>
       <c r="E69" s="91"/>
       <c r="F69" s="493">
         <v>32.32</v>
       </c>
-      <c r="G69" s="662"/>
-      <c r="H69" s="664"/>
+      <c r="G69" s="656"/>
+      <c r="H69" s="658"/>
       <c r="I69" s="491"/>
       <c r="J69" s="229">
         <f t="shared" si="0"/>
@@ -17596,28 +17609,28 @@
       <c r="P69" s="464"/>
       <c r="Q69" s="241"/>
       <c r="R69" s="221"/>
-      <c r="S69" s="642">
+      <c r="S69" s="668">
         <v>28000</v>
       </c>
-      <c r="T69" s="642" t="s">
+      <c r="T69" s="668" t="s">
         <v>24</v>
       </c>
       <c r="U69" s="222"/>
       <c r="V69" s="78"/>
     </row>
     <row r="70" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="580"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="521" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="646"/>
+      <c r="C70" s="672"/>
       <c r="D70" s="213"/>
       <c r="E70" s="91"/>
       <c r="F70" s="493">
         <v>110.74</v>
       </c>
-      <c r="G70" s="662"/>
-      <c r="H70" s="665"/>
+      <c r="G70" s="656"/>
+      <c r="H70" s="659"/>
       <c r="I70" s="491"/>
       <c r="J70" s="229">
         <f t="shared" si="0"/>
@@ -17634,8 +17647,8 @@
       <c r="P70" s="464"/>
       <c r="Q70" s="241"/>
       <c r="R70" s="221"/>
-      <c r="S70" s="643"/>
-      <c r="T70" s="643"/>
+      <c r="S70" s="669"/>
+      <c r="T70" s="669"/>
       <c r="U70" s="222"/>
       <c r="V70" s="78"/>
     </row>
@@ -17680,26 +17693,26 @@
       <c r="P71" s="464"/>
       <c r="Q71" s="241"/>
       <c r="R71" s="221"/>
-      <c r="S71" s="643"/>
-      <c r="T71" s="643"/>
+      <c r="S71" s="669"/>
+      <c r="T71" s="669"/>
       <c r="U71" s="222"/>
       <c r="V71" s="78"/>
     </row>
     <row r="72" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="634" t="s">
+      <c r="A72" s="660" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="636" t="s">
+      <c r="B72" s="662" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="637"/>
+      <c r="C72" s="663"/>
       <c r="D72" s="517"/>
       <c r="E72" s="517"/>
       <c r="F72" s="517"/>
-      <c r="G72" s="640">
+      <c r="G72" s="666">
         <v>45230</v>
       </c>
-      <c r="H72" s="653" t="s">
+      <c r="H72" s="647" t="s">
         <v>57</v>
       </c>
       <c r="I72" s="483">
@@ -17724,20 +17737,20 @@
       <c r="P72" s="464"/>
       <c r="Q72" s="241"/>
       <c r="R72" s="221"/>
-      <c r="S72" s="643"/>
-      <c r="T72" s="643"/>
+      <c r="S72" s="669"/>
+      <c r="T72" s="669"/>
       <c r="U72" s="222"/>
       <c r="V72" s="78"/>
     </row>
     <row r="73" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="635"/>
-      <c r="B73" s="638"/>
-      <c r="C73" s="639"/>
+      <c r="A73" s="661"/>
+      <c r="B73" s="664"/>
+      <c r="C73" s="665"/>
       <c r="D73" s="518"/>
       <c r="E73" s="518"/>
       <c r="F73" s="518"/>
-      <c r="G73" s="641"/>
-      <c r="H73" s="654"/>
+      <c r="G73" s="667"/>
+      <c r="H73" s="648"/>
       <c r="I73" s="483"/>
       <c r="J73" s="229"/>
       <c r="K73" s="226"/>
@@ -17751,8 +17764,8 @@
       <c r="P73" s="464"/>
       <c r="Q73" s="241"/>
       <c r="R73" s="221"/>
-      <c r="S73" s="643"/>
-      <c r="T73" s="643"/>
+      <c r="S73" s="669"/>
+      <c r="T73" s="669"/>
       <c r="U73" s="222"/>
       <c r="V73" s="78"/>
     </row>
@@ -17778,8 +17791,8 @@
       <c r="P74" s="464"/>
       <c r="Q74" s="241"/>
       <c r="R74" s="221"/>
-      <c r="S74" s="643"/>
-      <c r="T74" s="643"/>
+      <c r="S74" s="669"/>
+      <c r="T74" s="669"/>
       <c r="U74" s="222"/>
       <c r="V74" s="78"/>
     </row>
@@ -17808,8 +17821,8 @@
       <c r="P75" s="464"/>
       <c r="Q75" s="241"/>
       <c r="R75" s="221"/>
-      <c r="S75" s="644"/>
-      <c r="T75" s="644"/>
+      <c r="S75" s="670"/>
+      <c r="T75" s="670"/>
       <c r="U75" s="222"/>
       <c r="V75" s="78"/>
     </row>
@@ -17838,10 +17851,10 @@
       <c r="P76" s="464"/>
       <c r="Q76" s="241"/>
       <c r="R76" s="231"/>
-      <c r="S76" s="647">
+      <c r="S76" s="641">
         <v>28000</v>
       </c>
-      <c r="T76" s="650" t="s">
+      <c r="T76" s="644" t="s">
         <v>25</v>
       </c>
       <c r="U76" s="232"/>
@@ -17872,8 +17885,8 @@
       <c r="P77" s="464"/>
       <c r="Q77" s="241"/>
       <c r="R77" s="221"/>
-      <c r="S77" s="648"/>
-      <c r="T77" s="651"/>
+      <c r="S77" s="642"/>
+      <c r="T77" s="645"/>
       <c r="U77" s="222"/>
       <c r="V77" s="78"/>
     </row>
@@ -17901,8 +17914,8 @@
       <c r="P78" s="464"/>
       <c r="Q78" s="241"/>
       <c r="R78" s="221"/>
-      <c r="S78" s="648"/>
-      <c r="T78" s="651"/>
+      <c r="S78" s="642"/>
+      <c r="T78" s="645"/>
       <c r="U78" s="222"/>
       <c r="V78" s="78"/>
     </row>
@@ -17931,8 +17944,8 @@
       <c r="P79" s="464"/>
       <c r="Q79" s="241"/>
       <c r="R79" s="221"/>
-      <c r="S79" s="649"/>
-      <c r="T79" s="652"/>
+      <c r="S79" s="643"/>
+      <c r="T79" s="646"/>
       <c r="U79" s="222"/>
       <c r="V79" s="78"/>
     </row>
@@ -24799,11 +24812,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F291" s="615" t="s">
+      <c r="F291" s="560" t="s">
         <v>26</v>
       </c>
-      <c r="G291" s="615"/>
-      <c r="H291" s="616"/>
+      <c r="G291" s="560"/>
+      <c r="H291" s="561"/>
       <c r="I291" s="397">
         <f>SUM(I5:I290)</f>
         <v>55677.99</v>
@@ -25368,16 +25381,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="L64:L67"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:C73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="S69:S75"/>
+    <mergeCell ref="T69:T75"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C68:C70"/>
     <mergeCell ref="S76:S79"/>
     <mergeCell ref="T76:T79"/>
     <mergeCell ref="F291:H291"/>
@@ -25386,13 +25396,16 @@
     <mergeCell ref="P64:P67"/>
     <mergeCell ref="G68:G70"/>
     <mergeCell ref="H68:H70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:C73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="S69:S75"/>
-    <mergeCell ref="T69:T75"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="L64:L67"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25405,9 +25418,9 @@
   </sheetPr>
   <dimension ref="A1:X324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
+      <selection pane="bottomLeft" activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -25437,49 +25450,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="625" t="s">
+      <c r="A1" s="551" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="625"/>
-      <c r="C1" s="625"/>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="626"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="628" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="629"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="625"/>
-      <c r="B2" s="625"/>
-      <c r="C2" s="625"/>
-      <c r="D2" s="625"/>
-      <c r="E2" s="625"/>
-      <c r="F2" s="625"/>
-      <c r="G2" s="625"/>
-      <c r="H2" s="625"/>
-      <c r="I2" s="625"/>
-      <c r="J2" s="625"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -25487,8 +25500,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="627"/>
-      <c r="T2" s="627"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -25533,10 +25546,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="630" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="631"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -25829,8 +25842,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="632"/>
-      <c r="M12" s="633"/>
+      <c r="L12" s="558"/>
+      <c r="M12" s="559"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27706,8 +27719,12 @@
         <f t="shared" si="1"/>
         <v>312000</v>
       </c>
-      <c r="O65" s="546"/>
-      <c r="P65" s="547"/>
+      <c r="O65" s="675" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="676">
+        <v>45302</v>
+      </c>
       <c r="Q65" s="241"/>
       <c r="R65" s="177"/>
       <c r="S65" s="139"/>
@@ -27833,7 +27850,7 @@
       <c r="S69" s="673">
         <v>28000</v>
       </c>
-      <c r="T69" s="642" t="s">
+      <c r="T69" s="668" t="s">
         <v>24</v>
       </c>
       <c r="U69" s="222"/>
@@ -27865,7 +27882,7 @@
       <c r="Q70" s="241"/>
       <c r="R70" s="177"/>
       <c r="S70" s="674"/>
-      <c r="T70" s="643"/>
+      <c r="T70" s="669"/>
       <c r="U70" s="222"/>
       <c r="V70" s="78"/>
     </row>
@@ -27895,7 +27912,7 @@
       <c r="Q71" s="241"/>
       <c r="R71" s="177"/>
       <c r="S71" s="674"/>
-      <c r="T71" s="643"/>
+      <c r="T71" s="669"/>
       <c r="U71" s="222"/>
       <c r="V71" s="78"/>
     </row>
@@ -27925,7 +27942,7 @@
       <c r="Q72" s="241"/>
       <c r="R72" s="177"/>
       <c r="S72" s="674"/>
-      <c r="T72" s="643"/>
+      <c r="T72" s="669"/>
       <c r="U72" s="222"/>
       <c r="V72" s="78"/>
     </row>
@@ -27952,7 +27969,7 @@
       <c r="Q73" s="241"/>
       <c r="R73" s="177"/>
       <c r="S73" s="674"/>
-      <c r="T73" s="643"/>
+      <c r="T73" s="669"/>
       <c r="U73" s="222"/>
       <c r="V73" s="78"/>
     </row>
@@ -27978,8 +27995,8 @@
       <c r="P74" s="464"/>
       <c r="Q74" s="241"/>
       <c r="R74" s="221"/>
-      <c r="S74" s="643"/>
-      <c r="T74" s="643"/>
+      <c r="S74" s="669"/>
+      <c r="T74" s="669"/>
       <c r="U74" s="222"/>
       <c r="V74" s="78"/>
     </row>
@@ -28008,8 +28025,8 @@
       <c r="P75" s="464"/>
       <c r="Q75" s="241"/>
       <c r="R75" s="221"/>
-      <c r="S75" s="644"/>
-      <c r="T75" s="644"/>
+      <c r="S75" s="670"/>
+      <c r="T75" s="670"/>
       <c r="U75" s="222"/>
       <c r="V75" s="78"/>
     </row>
@@ -28038,10 +28055,10 @@
       <c r="P76" s="464"/>
       <c r="Q76" s="241"/>
       <c r="R76" s="231"/>
-      <c r="S76" s="647">
+      <c r="S76" s="641">
         <v>28000</v>
       </c>
-      <c r="T76" s="650" t="s">
+      <c r="T76" s="644" t="s">
         <v>25</v>
       </c>
       <c r="U76" s="232"/>
@@ -28072,8 +28089,8 @@
       <c r="P77" s="464"/>
       <c r="Q77" s="241"/>
       <c r="R77" s="221"/>
-      <c r="S77" s="648"/>
-      <c r="T77" s="651"/>
+      <c r="S77" s="642"/>
+      <c r="T77" s="645"/>
       <c r="U77" s="222"/>
       <c r="V77" s="78"/>
     </row>
@@ -28101,8 +28118,8 @@
       <c r="P78" s="464"/>
       <c r="Q78" s="241"/>
       <c r="R78" s="221"/>
-      <c r="S78" s="648"/>
-      <c r="T78" s="651"/>
+      <c r="S78" s="642"/>
+      <c r="T78" s="645"/>
       <c r="U78" s="222"/>
       <c r="V78" s="78"/>
     </row>
@@ -28131,8 +28148,8 @@
       <c r="P79" s="464"/>
       <c r="Q79" s="241"/>
       <c r="R79" s="221"/>
-      <c r="S79" s="649"/>
-      <c r="T79" s="652"/>
+      <c r="S79" s="643"/>
+      <c r="T79" s="646"/>
       <c r="U79" s="222"/>
       <c r="V79" s="78"/>
     </row>
@@ -34999,11 +35016,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F291" s="615" t="s">
+      <c r="F291" s="560" t="s">
         <v>26</v>
       </c>
-      <c r="G291" s="615"/>
-      <c r="H291" s="616"/>
+      <c r="G291" s="560"/>
+      <c r="H291" s="561"/>
       <c r="I291" s="397">
         <f>SUM(I5:I290)</f>
         <v>1680</v>
@@ -35568,16 +35585,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="S76:S79"/>
     <mergeCell ref="T76:T79"/>
     <mergeCell ref="F291:H291"/>
     <mergeCell ref="S69:S75"/>
     <mergeCell ref="T69:T75"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
